--- a/biology/Botanique/Lepturini/Lepturini.xlsx
+++ b/biology/Botanique/Lepturini/Lepturini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lepturini sont une tribu d'insectes coléoptères cérambycidés appartenant à la sous-famille des Lepturinae.
 </t>
@@ -511,11 +523,13 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lepturini sont souvent reconnaissables au premier regard à leur extraordinaire adaptation à la vie sur les fleurs.
 Étroites et allongées, souvent pourvues de vives colorations aposématiques à bandes (ou taches) jaune-noir ou rouge-noir, la plupart des espèces sont aussi caractérisées par une tête allongée vers l'avant pour pouvoir  se nourrir du nectar.
-L'élément diagnostique qui permet de les séparer des Rhagiini floricoles est la partie ventrale du prothorax, uniformément arrondie au lieu d'être anguleuse[1].
+L'élément diagnostique qui permet de les séparer des Rhagiini floricoles est la partie ventrale du prothorax, uniformément arrondie au lieu d'être anguleuse.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves des Lepturini sont toutes xylophages sur conifères ou feuillus.
 Les adultes sont tous diurnes et la plupart floricoles, sauf quelques espèces plus primitives du genre Stictoleptura, arboricoles.
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principaux genres rencontrés en Europe
-Alosterna Mulsant, 1863
+          <t>Principaux genres rencontrés en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alosterna Mulsant, 1863
 Anastrangalia Casey, 1924
 Anoplodera Mulsant, 1839
 Cornumutila Letzner, 1843
@@ -590,8 +611,43 @@
 Rutpela Nakane et Ohbayashi, 1957
 Stenurella Villiers, 1974
 Stictoleptura Casey, 1924 = Brachyleptura Casey, 1913
-Strangalia Serville, 1835
-Liste des 110 genres
+Strangalia Serville, 1835</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lepturini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lepturini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des 110 genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthoptura Fairmaire, 1894
 Alosterna Mulsant, 1863
 Analeptura Linsley &amp; Chemsak, 1976
